--- a/MIITTLCalibration/Data/PV3 Adult Cal R4.xlsx
+++ b/MIITTLCalibration/Data/PV3 Adult Cal R4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\MIITTLCalibration\MIITTLCalibration\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15720" windowHeight="12600"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="DANormCalData" sheetId="1" r:id="rId1"/>
     <sheet name="Validation Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -159,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
@@ -666,12 +671,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -708,7 +716,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -896,6 +903,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7BA-405B-AE73-D17E38BF004F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -955,7 +967,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -992,7 +1004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1180,6 +1191,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCE2-4850-8653-9248F4D1AFA2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1239,7 +1255,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1276,7 +1292,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1464,6 +1479,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5A1-4F02-9192-9FD25D608084}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1523,7 +1543,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1560,7 +1580,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1748,6 +1767,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA53-4BEC-AD09-06C59B6ABFFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1823,7 +1847,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1853,7 +1883,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1885,7 +1921,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1917,7 +1959,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1980,7 +2028,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2013,9 +2061,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2048,6 +2113,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2229,149 +2311,151 @@
   </sheetPr>
   <dimension ref="A1:AK108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.73046875" customWidth="1"/>
     <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="784" max="784" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="1040" max="1040" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="1296" max="1296" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="1552" max="1552" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="1808" max="1808" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2064" max="2064" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2320" max="2320" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2576" max="2576" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2832" max="2832" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3088" max="3088" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3344" max="3344" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3600" max="3600" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3856" max="3856" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4112" max="4112" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4368" max="4368" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4624" max="4624" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4880" max="4880" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5136" max="5136" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5392" max="5392" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5648" max="5648" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5904" max="5904" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6160" max="6160" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6416" max="6416" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6672" max="6672" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6928" max="6928" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7184" max="7184" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7440" max="7440" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7696" max="7696" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7952" max="7952" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8208" max="8208" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8464" max="8464" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8720" max="8720" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8976" max="8976" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9232" max="9232" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9488" max="9488" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9744" max="9744" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10000" max="10000" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10256" max="10256" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10512" max="10512" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10768" max="10768" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11024" max="11024" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11280" max="11280" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11536" max="11536" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11792" max="11792" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12048" max="12048" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12304" max="12304" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12560" max="12560" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12816" max="12816" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13072" max="13072" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13328" max="13328" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13584" max="13584" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13840" max="13840" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14096" max="14096" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14352" max="14352" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14608" max="14608" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14864" max="14864" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15120" max="15120" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15376" max="15376" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15632" max="15632" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15888" max="15888" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16144" max="16144" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1040" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1296" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1552" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1808" max="1808" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2064" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2320" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2576" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2832" max="2832" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3088" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3344" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3600" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3856" max="3856" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4112" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4368" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4624" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4880" max="4880" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5136" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5392" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5648" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5904" max="5904" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6160" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6416" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6672" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6928" max="6928" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7184" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7440" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7696" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7952" max="7952" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8208" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8464" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8720" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="8976" max="8976" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9232" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9488" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9744" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10000" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10256" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10512" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10768" max="10768" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11024" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11280" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11536" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="11792" max="11792" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12048" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12304" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12560" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12816" max="12816" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13072" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13328" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13584" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="13840" max="13840" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14096" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14352" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14608" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="14864" max="14864" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15120" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15376" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15632" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="15888" max="15888" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16144" width="17.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D4" s="35" t="s">
         <v>14</v>
       </c>
@@ -2382,7 +2466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
@@ -2393,10 +2477,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.5">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2521,7 +2605,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.5">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +2685,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2646,8 +2730,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="41" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +2746,7 @@
       <c r="K16" s="42"/>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>2</v>
       </c>
@@ -2679,7 +2763,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="54"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2780,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="57"/>
     </row>
-    <row r="19" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
@@ -2731,7 +2815,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <v>0</v>
       </c>
@@ -2780,7 +2864,7 @@
       </c>
       <c r="Y20" s="51"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B21" s="16">
         <v>100</v>
       </c>
@@ -2826,7 +2910,7 @@
       </c>
       <c r="AA21" s="38"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B22" s="16">
         <v>200</v>
       </c>
@@ -2879,7 +2963,7 @@
       </c>
       <c r="AA22" s="40"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B23" s="16">
         <v>300</v>
       </c>
@@ -2931,7 +3015,7 @@
         <v>-1.1906641760873763E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B24" s="16">
         <v>400</v>
       </c>
@@ -2983,7 +3067,7 @@
         <v>1.9629153306031325E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B25" s="16">
         <v>500</v>
       </c>
@@ -3035,7 +3119,7 @@
         <v>8.9895404861203989</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B26" s="16">
         <v>600</v>
       </c>
@@ -3087,7 +3171,7 @@
         <v>0.9999940796645358</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B27" s="16">
         <v>700</v>
       </c>
@@ -3132,7 +3216,7 @@
         <v>7.4337748344370871</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B28" s="16">
         <v>800</v>
       </c>
@@ -3193,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B29" s="16">
         <v>900</v>
       </c>
@@ -3253,7 +3337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B30" s="30">
         <v>1000</v>
       </c>
@@ -3313,7 +3397,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B31" s="9">
         <v>1100</v>
       </c>
@@ -3373,7 +3457,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
       <c r="B32" s="9">
         <v>1200</v>
       </c>
@@ -3433,7 +3517,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="9">
         <v>1300</v>
@@ -3479,7 +3563,7 @@
         <v>12.649006622516556</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B34" s="9">
         <v>1400</v>
       </c>
@@ -3524,7 +3608,7 @@
         <v>13.576158940397352</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B35" s="9">
         <v>1500</v>
       </c>
@@ -3569,7 +3653,7 @@
         <v>14.453642384105962</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B36" s="9">
         <v>1600</v>
       </c>
@@ -3614,7 +3698,7 @@
         <v>15.410596026490067</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B37" s="9">
         <v>1700</v>
       </c>
@@ -3663,7 +3747,7 @@
       </c>
       <c r="Y37" s="51"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B38" s="9">
         <v>1800</v>
       </c>
@@ -3713,7 +3797,7 @@
       <c r="AB38" s="38"/>
       <c r="AC38" s="38"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B39" s="9">
         <v>1900</v>
       </c>
@@ -3770,7 +3854,7 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="10">
         <v>2000</v>
       </c>
@@ -3825,7 +3909,7 @@
         <v>-4.1496301959999997E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="X41" s="35" t="s">
         <v>20</v>
       </c>
@@ -3837,7 +3921,7 @@
         <v>0.328015090329</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="X42" s="35" t="s">
         <v>21</v>
       </c>
@@ -3849,7 +3933,7 @@
         <v>11.465695300621</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.45">
       <c r="X43" s="35" t="s">
         <v>23</v>
       </c>
@@ -3858,12 +3942,12 @@
         <v>0.99998350864272056</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B45" s="8" t="s">
         <v>2</v>
       </c>
@@ -3881,7 +3965,7 @@
       <c r="L45" s="54"/>
       <c r="Y45" s="37"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B46" s="9" t="s">
         <v>4</v>
       </c>
@@ -3898,7 +3982,7 @@
       <c r="K46" s="56"/>
       <c r="L46" s="57"/>
     </row>
-    <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="10" t="s">
         <v>6</v>
       </c>
@@ -3933,7 +4017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B48" s="9">
         <v>0</v>
       </c>
@@ -3968,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B49" s="16">
         <v>100</v>
       </c>
@@ -4003,7 +4087,7 @@
         <v>2.3344370860927151</v>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B50" s="16">
         <v>200</v>
       </c>
@@ -4038,7 +4122,7 @@
         <v>3.2119205298013251</v>
       </c>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B51" s="16">
         <v>300</v>
       </c>
@@ -4073,7 +4157,7 @@
         <v>4.1059602649006619</v>
       </c>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B52" s="16">
         <v>400</v>
       </c>
@@ -4108,7 +4192,7 @@
         <v>4.9172185430463582</v>
       </c>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B53" s="16">
         <v>500</v>
       </c>
@@ -4143,7 +4227,7 @@
         <v>5.8112582781456963</v>
       </c>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B54" s="16">
         <v>600</v>
       </c>
@@ -4182,7 +4266,7 @@
       </c>
       <c r="Y54" s="51"/>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B55" s="16">
         <v>700</v>
       </c>
@@ -4218,7 +4302,7 @@
       </c>
       <c r="AE55" s="38"/>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B56" s="16">
         <v>800</v>
       </c>
@@ -4261,7 +4345,7 @@
       </c>
       <c r="AE56" s="40"/>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B57" s="16">
         <v>900</v>
       </c>
@@ -4303,7 +4387,7 @@
         <v>-7.4691255174766449E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B58" s="9">
         <v>1000</v>
       </c>
@@ -4345,7 +4429,7 @@
         <v>2.3010890127381982</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B59" s="9">
         <v>1100</v>
       </c>
@@ -4387,7 +4471,7 @@
         <v>27.441272849989769</v>
       </c>
     </row>
-    <row r="60" spans="2:31" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:31" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B60" s="9">
         <v>1200</v>
       </c>
@@ -4429,7 +4513,7 @@
         <v>0.99997162753400348</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B61" s="9">
         <v>1300</v>
       </c>
@@ -4464,7 +4548,7 @@
         <v>12.649006622516556</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B62" s="9">
         <v>1400</v>
       </c>
@@ -4500,7 +4584,7 @@
       </c>
       <c r="Y62" s="37"/>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B63" s="9">
         <v>1500</v>
       </c>
@@ -4535,7 +4619,7 @@
         <v>14.453642384105962</v>
       </c>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.45">
       <c r="B64" s="9">
         <v>1600</v>
       </c>
@@ -4570,7 +4654,7 @@
         <v>15.410596026490067</v>
       </c>
     </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B65" s="9">
         <v>1700</v>
       </c>
@@ -4605,7 +4689,7 @@
         <v>16.367549668874172</v>
       </c>
     </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B66" s="9">
         <v>1800</v>
       </c>
@@ -4640,7 +4724,7 @@
         <v>17.357615894039736</v>
       </c>
     </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:37" x14ac:dyDescent="0.45">
       <c r="B67" s="9">
         <v>1900</v>
       </c>
@@ -4675,7 +4759,7 @@
         <v>18.331125827814571</v>
       </c>
     </row>
-    <row r="68" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="10">
         <v>2000</v>
       </c>
@@ -4710,20 +4794,20 @@
         <v>19.321192052980134</v>
       </c>
     </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:37" x14ac:dyDescent="0.45">
       <c r="X70" s="51" t="s">
         <v>22</v>
       </c>
       <c r="Y70" s="51"/>
     </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:37" x14ac:dyDescent="0.45">
       <c r="Z71" s="38" t="s">
         <v>24</v>
       </c>
       <c r="AJ71" s="38"/>
       <c r="AK71" s="38"/>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:37" x14ac:dyDescent="0.45">
       <c r="X72" s="35" t="s">
         <v>18</v>
       </c>
@@ -4738,7 +4822,7 @@
       <c r="AJ72" s="40"/>
       <c r="AK72" s="40"/>
     </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:37" x14ac:dyDescent="0.45">
       <c r="X73" s="35" t="s">
         <v>19</v>
       </c>
@@ -4750,7 +4834,7 @@
         <v>-1.1311269787610001</v>
       </c>
     </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" x14ac:dyDescent="0.45">
       <c r="X74" s="35" t="s">
         <v>20</v>
       </c>
@@ -4762,7 +4846,7 @@
         <v>17.955713311941999</v>
       </c>
     </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:37" x14ac:dyDescent="0.45">
       <c r="X75" s="35" t="s">
         <v>21</v>
       </c>
@@ -4774,7 +4858,7 @@
         <v>10.392108094824</v>
       </c>
     </row>
-    <row r="76" spans="2:37" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:37" ht="15.75" x14ac:dyDescent="0.45">
       <c r="X76" s="35" t="s">
         <v>23</v>
       </c>
@@ -4783,10 +4867,10 @@
         <v>0.99993182982954176</v>
       </c>
     </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:37" x14ac:dyDescent="0.45">
       <c r="Y78" s="37"/>
     </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:37" x14ac:dyDescent="0.45">
       <c r="Y80" s="37">
         <f t="array" ref="Y80:AC88">LINEST(B$20:B$40,L$20:L$40^{1,2,3,4},0,1)</f>
         <v>2.0917087379097324E-2</v>
@@ -4804,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="15:29" x14ac:dyDescent="0.45">
       <c r="Y81">
         <v>2.7082247867500431E-3</v>
       </c>
@@ -4821,7 +4905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="15:29" x14ac:dyDescent="0.45">
       <c r="Y82">
         <v>0.99993182982954176</v>
       </c>
@@ -4838,7 +4922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="15:29" x14ac:dyDescent="0.45">
       <c r="Y83">
         <v>62339.733760528456</v>
       </c>
@@ -4855,7 +4939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="15:29" x14ac:dyDescent="0.45">
       <c r="Y84">
         <v>28698043.51610785</v>
       </c>
@@ -4872,7 +4956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
       <c r="Y85" t="e">
@@ -4891,7 +4975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
       <c r="Y86" t="e">
@@ -4910,7 +4994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
       <c r="Y87" t="e">
@@ -4929,7 +5013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
       <c r="Y88" t="e">
@@ -4948,83 +5032,83 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="15:29" x14ac:dyDescent="0.45">
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="15:16" x14ac:dyDescent="0.45">
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
@@ -5057,15 +5141,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="41" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5164,7 @@
       <c r="K16" s="42"/>
       <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>2</v>
       </c>
@@ -5097,7 +5181,7 @@
       <c r="K17" s="53"/>
       <c r="L17" s="54"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
@@ -5114,7 +5198,7 @@
       <c r="K18" s="56"/>
       <c r="L18" s="57"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
@@ -5149,7 +5233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <v>0</v>
       </c>
@@ -5164,7 +5248,7 @@
       <c r="K20" s="33"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="16">
         <v>100</v>
       </c>
@@ -5179,7 +5263,7 @@
       <c r="K21" s="49"/>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="16">
         <v>200</v>
       </c>
@@ -5194,7 +5278,7 @@
       <c r="K22" s="49"/>
       <c r="L22" s="44"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="16">
         <v>300</v>
       </c>
@@ -5209,7 +5293,7 @@
       <c r="K23" s="49"/>
       <c r="L23" s="44"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="16">
         <v>400</v>
       </c>
@@ -5224,7 +5308,7 @@
       <c r="K24" s="49"/>
       <c r="L24" s="44"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="16">
         <v>500</v>
       </c>
@@ -5239,7 +5323,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="44"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="16">
         <v>600</v>
       </c>
@@ -5254,7 +5338,7 @@
       <c r="K26" s="49"/>
       <c r="L26" s="44"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="16">
         <v>700</v>
       </c>
@@ -5269,7 +5353,7 @@
       <c r="K27" s="49"/>
       <c r="L27" s="44"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="16">
         <v>800</v>
       </c>
@@ -5284,7 +5368,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="44"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="16">
         <v>900</v>
       </c>
@@ -5299,7 +5383,7 @@
       <c r="K29" s="49"/>
       <c r="L29" s="44"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="30">
         <v>1000</v>
       </c>
@@ -5314,7 +5398,7 @@
       <c r="K30" s="34"/>
       <c r="L30" s="45"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="9">
         <v>1100</v>
       </c>
@@ -5329,7 +5413,7 @@
       <c r="K31" s="49"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="9">
         <v>1200</v>
       </c>
@@ -5344,7 +5428,7 @@
       <c r="K32" s="49"/>
       <c r="L32" s="44"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="9">
         <v>1300</v>
       </c>
@@ -5359,7 +5443,7 @@
       <c r="K33" s="49"/>
       <c r="L33" s="44"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="9">
         <v>1400</v>
       </c>
@@ -5374,7 +5458,7 @@
       <c r="K34" s="49"/>
       <c r="L34" s="44"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="9">
         <v>1500</v>
       </c>
@@ -5389,7 +5473,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="44"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="9">
         <v>1600</v>
       </c>
@@ -5404,7 +5488,7 @@
       <c r="K36" s="49"/>
       <c r="L36" s="44"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="9">
         <v>1700</v>
       </c>
@@ -5419,7 +5503,7 @@
       <c r="K37" s="49"/>
       <c r="L37" s="44"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="9">
         <v>1800</v>
       </c>
@@ -5434,7 +5518,7 @@
       <c r="K38" s="49"/>
       <c r="L38" s="44"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="9">
         <v>1900</v>
       </c>
@@ -5449,7 +5533,7 @@
       <c r="K39" s="49"/>
       <c r="L39" s="44"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="10">
         <v>2000</v>
       </c>
